--- a/medicine/Psychotrope/Verre_à_shot/Verre_à_shot.xlsx
+++ b/medicine/Psychotrope/Verre_à_shot/Verre_à_shot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Verre_%C3%A0_shot</t>
+          <t>Verre_à_shot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un verre à shot ou verre à shooter (parfois simplement shot) est un petit verre destiné à recevoir un alcool fort ou un cocktail de type « shooter ». 
 Les verres à shot sont souvent décorés avec des publicités pour boisson, des images humoristiques ou touristiques. Ils font l'objet de collections au même titre que les verres à bière.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Verre_%C3%A0_shot</t>
+          <t>Verre_à_shot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,52 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après le Oxford English Dictionary, le terme anglais « shot glass » est apparu pour la première fois dans le New York Times dans les années 1940. Mais les références à des petits verres destinés à servir du whisky ou du rhum remontent au moins au début du XIXe siècle.
 Après la prohibition aux États-Unis, les anciens verres à whisky, plutôt fins, sont progressivement remplacés par des verres aux bords moins fragiles et à la base plus épaisse. Progressivement ce type de petits verres va se répandre.
 En anglais, le mot « shot » peut signifier « dose » ou « petit montant ». Le nom de verre à shot s'expliquerait alors simplement par le fait qu'il contient une petite quantité d'alcool.
 Une légende propose une explication plus romanesque à ce nom. Elle raconte qu'au temps du Far-West, les cow-boys peu fortunés se rendaient dans les saloons et troquaient des petites quantités d'alcool contre des cartouches. Le mot « shot » viendrait alors de là, puisque « shot » peut également signifier « coup de feu » en anglais.
 Une autre histoire prétend que le mot « shot » vient originellement du nom de Friedrich Otto Schott, cofondateur de l'usine de verres Jenaer Glaswerk Schott &amp; Genossen à Iéna, en Allemagne en 1884.
-Contenance
-La contenance d'un verre à shot se situe en général entre 30 ml et 50 ml. Mais elle peut changer d'un pays à l'autre. Elle est ainsi de 30 ml en Australie ou en Inde, de 40 ml en Finlande ou en Suède, de 50 ml en Russie ou en Pologne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Verre_à_shot</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verre_%C3%A0_shot</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Origine du nom</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Contenance</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La contenance d'un verre à shot se situe en général entre 30 ml et 50 ml. Mais elle peut changer d'un pays à l'autre. Elle est ainsi de 30 ml en Australie ou en Inde, de 40 ml en Finlande ou en Suède, de 50 ml en Russie ou en Pologne.
 Au Royaume-Uni un shot correspond à 25 ml ou 35 ml.
 Aux États-Unis un shot contient généralement 44 ml.
 En République tchèque le shot est classiquement de 50 ml, mais les shots de 40 ml sont de plus en plus répandus.
@@ -529,44 +578,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Verre_%C3%A0_shot</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Verre_%C3%A0_shot</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Les faux-cul</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Verre dont l'épaisseur des parois réduit la contenance à 1 centilitre, soit deux cuillères à cafe, contre 2,5 à 3 cl pour un verre à liqueur normal. Existe aussi en version verre de vin (région d'Auvergne).
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Verre_%C3%A0_shot</t>
+          <t>Verre_à_shot</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +599,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Les faux-cul</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Verre dont l'épaisseur des parois réduit la contenance à 1 centilitre, soit deux cuillères à cafe, contre 2,5 à 3 cl pour un verre à liqueur normal. Existe aussi en version verre de vin (région d'Auvergne).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Verre_à_shot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verre_%C3%A0_shot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Verres
 cocktail
